--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="table" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="locations" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="judges" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="teams" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="bomber" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="table" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="locations" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="judges" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="teams" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="277">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -209,7 +210,7 @@
     <t xml:space="preserve">беседка мед-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Влада Синицина</t>
+    <t xml:space="preserve">Влада Синицына</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -254,12 +255,225 @@
     <t xml:space="preserve">3.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Даниил Снегур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Боря Дураков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настя Андреева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ирина Поликарпова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей Ламзин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лиза Моисеева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bomber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пономарева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бабушкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кассал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клим Атамасов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хмельницкая Марина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Осипова Екатерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казелков Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Торшин Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грошева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шевцова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яковлев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шестаков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федоров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моисеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саванина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фалейчик Никита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плотник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Похабов Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыжемова Алина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колупаева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шидловская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шарковская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрыжков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимошков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соколовский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казаринова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янушевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москвин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимофеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зелинский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Муковозчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Искалиев Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Козянчук Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Носков Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лев Сигов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">решение обменной задачи! Боря Демешев, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лисин Рома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Судницина Настя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Атамасов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельницкая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марков Семен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киреев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гайдалиев Тамерлан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юхновец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельниченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дмитриева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новикова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алиса Силаева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настя Молюкина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">решение обменной задачи! Миша Шишацкий, Лена Абакумова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Муляр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыженкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кравченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шеховцова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрухина</t>
+  </si>
+  <si>
     <t xml:space="preserve">sum</t>
   </si>
   <si>
     <t xml:space="preserve">2:0</t>
   </si>
   <si>
+    <t xml:space="preserve">1:1</t>
+  </si>
+  <si>
     <t xml:space="preserve">0:2</t>
   </si>
   <si>
@@ -278,18 +492,6 @@
     <t xml:space="preserve">Лейден</t>
   </si>
   <si>
-    <t xml:space="preserve">палатка мед-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">палатка 1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">палатка 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вместо столовой</t>
-  </si>
-  <si>
     <t xml:space="preserve">зондыр</t>
   </si>
   <si>
@@ -314,22 +516,10 @@
     <t xml:space="preserve">Иван Адо</t>
   </si>
   <si>
-    <t xml:space="preserve">Ирина Поликарпова</t>
-  </si>
-  <si>
     <t xml:space="preserve">Алина Диденко</t>
   </si>
   <si>
-    <t xml:space="preserve">Даниил Снегур</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лиза Моисеева</t>
-  </si>
-  <si>
     <t xml:space="preserve">Анастасия Андреева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Влада Синицына</t>
   </si>
   <si>
     <t xml:space="preserve">Леша Смолянинов</t>
@@ -805,11 +995,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -825,7 +1015,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -852,6 +1042,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -886,8 +1080,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading 3" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 1 1" xfId="20"/>
+    <cellStyle name="Heading 3" xfId="21"/>
     <cellStyle name="Result 4" xfId="22"/>
     <cellStyle name="Result2" xfId="23"/>
     <cellStyle name="Excel Built-in Normal" xfId="24"/>
@@ -903,10 +1097,10 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
@@ -1505,54 +1699,378 @@
       <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1682,154 +2200,90 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z26" activeCellId="0" sqref="Z26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="6.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="4.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="6.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="4.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="4.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="3.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="7.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="21.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>0</v>
+      <c r="C4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1837,255 +2291,1585 @@
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>0</v>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>2</v>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>2</v>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>0</v>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>2</v>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>0</v>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>2</v>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>0</v>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="Y15" s="0" t="n">
-        <v>0</v>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>0</v>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>2</v>
+      <c r="C17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>2</v>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>0</v>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>0</v>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>2</v>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>0</v>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="C35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2102,125 +3886,404 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="4.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="4.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="0" width="3.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>1.1</v>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1.2</v>
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2.1</v>
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2.2</v>
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3.1</v>
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3.2</v>
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>80</v>
+      <c r="A8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>81</v>
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>82</v>
+      <c r="A10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>83</v>
+      <c r="A11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1.1</v>
+      <c r="A14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1.2</v>
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="W15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2.1</v>
+      <c r="A16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>2.2</v>
+      <c r="A17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>3.1</v>
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>3.2</v>
+      <c r="A19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
+      <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>87</v>
+      <c r="A23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2239,13 +4302,150 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -2254,19 +4454,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +4479,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -2295,7 +4495,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -2308,10 +4508,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -2322,12 +4522,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -2337,13 +4537,13 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>97</v>
+      <c r="B6" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -2359,7 +4559,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -2375,7 +4575,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -2391,7 +4591,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -2407,7 +4607,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>40</v>
@@ -2418,12 +4618,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -2439,7 +4639,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -2455,7 +4655,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -2471,7 +4671,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -2487,7 +4687,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -2498,12 +4698,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
@@ -2519,7 +4719,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>28</v>
@@ -2535,7 +4735,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>28</v>
@@ -2551,7 +4751,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
@@ -2567,7 +4767,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>36</v>
@@ -2583,7 +4783,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -2599,7 +4799,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>51</v>
@@ -2610,12 +4810,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>35</v>
@@ -2631,7 +4831,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -2642,12 +4842,12 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>47</v>
@@ -2663,7 +4863,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -2679,7 +4879,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -2693,7 +4893,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -2704,10 +4904,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -2721,7 +4921,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -2735,7 +4935,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -2748,7 +4948,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -2757,7 +4957,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2771,14 +4971,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2794,237 +4994,237 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>111</v>
+      <c r="A3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>113</v>
+      <c r="A4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>117</v>
+      <c r="A5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>120</v>
+      <c r="A6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>124</v>
+      <c r="A7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>128</v>
+      <c r="A8" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>132</v>
+      <c r="A9" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>137</v>
+      <c r="A10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>141</v>
+      <c r="A11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>147</v>
+      <c r="A12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
@@ -3034,51 +5234,51 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>151</v>
+      <c r="A13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>155</v>
+      <c r="A14" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -3089,61 +5289,61 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>159</v>
+      <c r="A15" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>163</v>
+      <c r="A16" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>167</v>
+      <c r="A17" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -3153,30 +5353,30 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>170</v>
+      <c r="A18" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -3187,17 +5387,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>174</v>
+      <c r="A19" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -3208,141 +5408,141 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>178</v>
+      <c r="A20" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>182</v>
+      <c r="A21" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>186</v>
+      <c r="A22" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>190</v>
+      <c r="A23" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>194</v>
+      <c r="A24" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>198</v>
+      <c r="A25" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,18 +5597,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,7 +5637,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="3" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +5654,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,7 +5671,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,7 +5688,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,7 +5705,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,7 +5722,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,7 +5739,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,7 +5756,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,7 +5773,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +5790,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,7 +5807,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,7 +5824,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="276">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -402,7 +402,7 @@
     <t xml:space="preserve">Лев Сигов</t>
   </si>
   <si>
-    <t xml:space="preserve">решение обменной задачи! Боря Демешев, </t>
+    <t xml:space="preserve">Владимир Тимофеев</t>
   </si>
   <si>
     <t xml:space="preserve">Лисин Рома</t>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t xml:space="preserve">Настя Молюкина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">решение обменной задачи! Миша Шишацкий, Лена Абакумова</t>
   </si>
   <si>
     <t xml:space="preserve">Муляр</t>
@@ -1100,13 +1097,13 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,11 +2199,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
@@ -2928,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>2</v>
@@ -2942,13 +2939,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,13 +3345,10 @@
         <v>12</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3359,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>1</v>
@@ -3522,7 +3513,7 @@
         <v>39</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2</v>
@@ -3536,7 +3527,7 @@
         <v>39</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
@@ -3550,7 +3541,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
@@ -3578,7 +3569,7 @@
         <v>35</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>2</v>
@@ -3592,7 +3583,7 @@
         <v>44</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>2</v>
@@ -3606,7 +3597,7 @@
         <v>44</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>2</v>
@@ -3620,7 +3611,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>1</v>
@@ -3634,7 +3625,7 @@
         <v>44</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1</v>
@@ -3892,7 +3883,7 @@
       <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
@@ -3974,7 +3965,7 @@
         <v>52</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,10 +3973,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>4</v>
@@ -3996,10 +3987,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>3</v>
@@ -4010,10 +4001,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>0</v>
@@ -4024,10 +4015,10 @@
         <v>11</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>4</v>
@@ -4038,10 +4029,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>2</v>
@@ -4052,10 +4043,10 @@
         <v>24</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X7" s="0" t="n">
         <v>4</v>
@@ -4066,10 +4057,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>2</v>
@@ -4080,10 +4071,10 @@
         <v>16</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X9" s="0" t="n">
         <v>4</v>
@@ -4094,10 +4085,10 @@
         <v>39</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X10" s="0" t="n">
         <v>2</v>
@@ -4108,10 +4099,10 @@
         <v>31</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>2</v>
@@ -4122,10 +4113,10 @@
         <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>2</v>
@@ -4136,10 +4127,10 @@
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X13" s="0" t="n">
         <v>2</v>
@@ -4150,10 +4141,10 @@
         <v>48</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>0</v>
@@ -4164,11 +4155,11 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N15" s="8"/>
       <c r="W15" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X15" s="0" t="n">
         <v>2</v>
@@ -4179,10 +4170,10 @@
         <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>0</v>
@@ -4193,10 +4184,10 @@
         <v>36</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>4</v>
@@ -4207,10 +4198,10 @@
         <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X18" s="0" t="n">
         <v>2</v>
@@ -4221,10 +4212,10 @@
         <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>2</v>
@@ -4235,10 +4226,10 @@
         <v>35</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X20" s="0" t="n">
         <v>0</v>
@@ -4249,10 +4240,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X21" s="0" t="n">
         <v>3</v>
@@ -4263,10 +4254,10 @@
         <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X22" s="0" t="n">
         <v>0</v>
@@ -4277,10 +4268,10 @@
         <v>52</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X23" s="0" t="n">
         <v>0</v>
@@ -4308,7 +4299,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
   </cols>
@@ -4345,27 +4336,27 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,7 +4391,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,19 +4445,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,7 +4470,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -4495,7 +4486,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -4508,10 +4499,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -4527,7 +4518,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -4538,12 +4529,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -4559,7 +4550,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -4575,7 +4566,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -4591,7 +4582,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -4607,7 +4598,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>40</v>
@@ -4623,7 +4614,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -4639,7 +4630,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -4655,7 +4646,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -4671,7 +4662,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -4687,7 +4678,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -4703,7 +4694,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
@@ -4719,7 +4710,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>28</v>
@@ -4735,7 +4726,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>28</v>
@@ -4751,7 +4742,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
@@ -4767,7 +4758,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>36</v>
@@ -4783,7 +4774,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -4799,7 +4790,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>51</v>
@@ -4810,12 +4801,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>35</v>
@@ -4831,7 +4822,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -4847,7 +4838,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>47</v>
@@ -4863,7 +4854,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -4879,7 +4870,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -4893,7 +4884,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -4904,10 +4895,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -4921,7 +4912,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -4935,7 +4926,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -4948,7 +4939,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -4957,7 +4948,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +4986,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5005,168 +4996,168 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
@@ -5174,46 +5165,46 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2</v>
@@ -5221,10 +5212,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
@@ -5234,51 +5225,51 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -5290,45 +5281,45 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -5340,10 +5331,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -5353,30 +5344,30 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -5388,16 +5379,16 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -5409,68 +5400,68 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
@@ -5478,40 +5469,40 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -5523,26 +5514,26 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5586,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,18 +5588,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,7 +5628,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +5645,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,7 +5662,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5679,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,7 +5696,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,7 +5713,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,7 +5730,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,7 +5747,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,7 +5764,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,7 +5781,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,7 +5798,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5815,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="288">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -387,7 +387,10 @@
     <t xml:space="preserve">Муковозчик</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">Серов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпенко</t>
   </si>
   <si>
     <t xml:space="preserve">Искалиев Андрей</t>
@@ -465,13 +468,46 @@
     <t xml:space="preserve">sum</t>
   </si>
   <si>
+    <t xml:space="preserve">ст1</t>
+  </si>
+  <si>
     <t xml:space="preserve">2:0</t>
   </si>
   <si>
+    <t xml:space="preserve">ст3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1:1</t>
   </si>
   <si>
     <t xml:space="preserve">0:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст10</t>
   </si>
   <si>
     <t xml:space="preserve">ВК</t>
@@ -930,12 +966,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1012,7 +1054,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,11 +1087,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1083,6 +1137,66 @@
     <cellStyle name="Result2" xfId="23"/>
     <cellStyle name="Excel Built-in Normal" xfId="24"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1097,7 +1211,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
@@ -2199,11 +2313,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
@@ -2313,6 +2427,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2324,6 +2441,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
@@ -2781,9 +2901,6 @@
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -2793,13 +2910,10 @@
         <v>32</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,9 +2929,6 @@
       <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -2827,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2</v>
@@ -2841,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>2</v>
@@ -2855,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -2869,7 +2980,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -2925,7 +3036,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>2</v>
@@ -2939,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>2</v>
@@ -2953,7 +3064,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>2</v>
@@ -2981,7 +3092,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>2</v>
@@ -2995,7 +3106,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>1</v>
@@ -3009,7 +3120,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2</v>
@@ -3023,7 +3134,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>1</v>
@@ -3037,7 +3148,7 @@
         <v>23</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>2</v>
@@ -3051,7 +3162,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>1</v>
@@ -3177,7 +3288,7 @@
         <v>48</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>2</v>
@@ -3191,7 +3302,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>1</v>
@@ -3205,7 +3316,7 @@
         <v>48</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>1</v>
@@ -3247,7 +3358,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>2</v>
@@ -3261,7 +3372,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>2</v>
@@ -3275,7 +3386,7 @@
         <v>28</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>2</v>
@@ -3303,7 +3414,7 @@
         <v>43</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>1</v>
@@ -3317,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1</v>
@@ -3331,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>1</v>
@@ -3345,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>1</v>
@@ -3359,7 +3470,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>1</v>
@@ -3373,7 +3484,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>2</v>
@@ -3387,7 +3498,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>1</v>
@@ -3443,7 +3554,7 @@
         <v>19</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>2</v>
@@ -3513,7 +3624,7 @@
         <v>39</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2</v>
@@ -3527,7 +3638,7 @@
         <v>39</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
@@ -3541,7 +3652,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
@@ -3569,7 +3680,7 @@
         <v>35</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>2</v>
@@ -3583,7 +3694,7 @@
         <v>44</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>2</v>
@@ -3597,7 +3708,7 @@
         <v>44</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>2</v>
@@ -3611,7 +3722,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>1</v>
@@ -3625,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1</v>
@@ -3879,11 +3990,11 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y12" activeCellId="0" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
@@ -3895,6 +4006,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="0" width="3.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="10.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,21 +4076,25 @@
       <c r="W1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="0" t="s">
-        <v>145</v>
+      <c r="X1" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="B2" s="10"/>
+      <c r="E2" s="0" t="s">
+        <v>147</v>
+      </c>
       <c r="H2" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X2" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="X2" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3986,13 +4102,17 @@
       <c r="A3" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="C3" s="10"/>
       <c r="F3" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="X3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="X3" s="9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4000,13 +4120,17 @@
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="10"/>
       <c r="H4" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>152</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X4" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="X4" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4014,13 +4138,17 @@
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="O5" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X5" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="X5" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4029,12 +4157,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="P6" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X6" s="0" t="n">
+      <c r="U6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="X6" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4042,13 +4174,17 @@
       <c r="A7" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="10"/>
+      <c r="I7" s="0" t="s">
+        <v>154</v>
+      </c>
       <c r="N7" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X7" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="X7" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4057,12 +4193,16 @@
         <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X8" s="0" t="n">
+      <c r="H8" s="10"/>
+      <c r="J8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="X8" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4070,13 +4210,17 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X9" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="X9" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4084,13 +4228,17 @@
       <c r="A10" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>155</v>
+      </c>
       <c r="I10" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="T10" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="T10" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4098,13 +4246,17 @@
       <c r="A11" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="K11" s="10"/>
       <c r="L11" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>156</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X11" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="X11" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4113,12 +4265,16 @@
         <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="O12" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="V12" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="V12" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4127,12 +4283,16 @@
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="T13" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="T13" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4140,13 +4300,17 @@
       <c r="A14" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>152</v>
+      </c>
       <c r="G14" s="0" t="s">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N14" s="10"/>
       <c r="Q14" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X14" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="X14" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,13 +4319,17 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="W15" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="W15" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4170,12 +4338,16 @@
         <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="P16" s="10"/>
       <c r="R16" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X16" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4183,13 +4355,17 @@
       <c r="A17" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="C17" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="K17" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X17" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="X17" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4198,12 +4374,16 @@
         <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="P18" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X18" s="0" t="n">
+      <c r="R18" s="10"/>
+      <c r="S18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4212,12 +4392,16 @@
         <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X19" s="0" t="n">
+      <c r="R19" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="X19" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4226,12 +4410,16 @@
         <v>35</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X20" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="X20" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4240,12 +4428,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="U21" s="10"/>
       <c r="W21" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X21" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="X21" s="9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4254,12 +4446,16 @@
         <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X22" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="V22" s="10"/>
+      <c r="W22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="X22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4464,16 @@
         <v>52</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X23" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="W23" s="10"/>
+      <c r="X23" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4299,7 +4499,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
   </cols>
@@ -4336,27 +4536,27 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,7 +4591,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,19 +4645,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,7 +4670,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -4486,7 +4686,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -4499,10 +4699,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -4518,7 +4718,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -4528,13 +4728,13 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>162</v>
+      <c r="B6" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -4550,7 +4750,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -4566,7 +4766,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -4582,7 +4782,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -4598,7 +4798,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>40</v>
@@ -4614,7 +4814,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -4630,7 +4830,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -4646,7 +4846,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -4662,7 +4862,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -4678,7 +4878,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -4694,7 +4894,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
@@ -4710,7 +4910,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>28</v>
@@ -4726,7 +4926,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>28</v>
@@ -4742,7 +4942,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
@@ -4758,7 +4958,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>36</v>
@@ -4774,7 +4974,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -4790,7 +4990,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>51</v>
@@ -4801,12 +5001,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>35</v>
@@ -4822,7 +5022,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -4838,7 +5038,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>47</v>
@@ -4854,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -4870,7 +5070,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -4884,7 +5084,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -4895,10 +5095,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -4912,7 +5112,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -4926,7 +5126,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -4939,7 +5139,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -4948,7 +5148,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4985,237 +5185,237 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>173</v>
+      <c r="A3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>175</v>
+      <c r="A4" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>179</v>
+      <c r="A5" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>182</v>
+      <c r="A6" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>186</v>
+      <c r="A7" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>190</v>
+      <c r="A8" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>194</v>
+      <c r="A9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>199</v>
+      <c r="A10" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>203</v>
+      <c r="A11" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>209</v>
+      <c r="A12" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
@@ -5225,51 +5425,51 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>213</v>
+      <c r="A13" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>217</v>
+      <c r="A14" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -5280,46 +5480,46 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>221</v>
+      <c r="A15" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>225</v>
+      <c r="A16" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -5330,11 +5530,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>229</v>
+      <c r="A17" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -5344,30 +5544,30 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>232</v>
+      <c r="A18" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -5378,17 +5578,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>236</v>
+      <c r="A19" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -5399,110 +5599,110 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>240</v>
+      <c r="A20" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>244</v>
+      <c r="A21" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>248</v>
+      <c r="A22" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>252</v>
+      <c r="A23" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>256</v>
+      <c r="A24" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -5513,27 +5713,27 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>260</v>
+      <c r="A25" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5744,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5566,7 +5766,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5588,18 +5788,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5828,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5645,7 +5845,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,7 +5862,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,7 +5879,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5896,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,7 +5913,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,7 +5930,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,7 +5947,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,7 +5964,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,7 +5981,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,7 +5998,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +6015,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="295">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -273,6 +273,21 @@
     <t xml:space="preserve">Лиза Моисеева</t>
   </si>
   <si>
+    <t xml:space="preserve">Леша Смолянинов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миша Красков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваня Трофимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андрей Мордасевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даня Снегур</t>
+  </si>
+  <si>
     <t xml:space="preserve">tour</t>
   </si>
   <si>
@@ -465,51 +480,60 @@
     <t xml:space="preserve">Петрухина</t>
   </si>
   <si>
+    <t xml:space="preserve">Федоров Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яковлев Демьян</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артем Муковозчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шестаков Вячеслав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миша Москвин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виктор Зелинский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слава</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артем М</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хитрук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миша Торшин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваня Трофимов, Егор Адиятов, Андрей Мордасевич, обменка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вика Луковская, Игорь Скрипко, задача 1???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Темирлан</t>
+  </si>
+  <si>
     <t xml:space="preserve">sum</t>
   </si>
   <si>
-    <t xml:space="preserve">ст1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2:0</t>
   </si>
   <si>
-    <t xml:space="preserve">ст3</t>
+    <t xml:space="preserve">0:2</t>
   </si>
   <si>
     <t xml:space="preserve">1:1</t>
   </si>
   <si>
-    <t xml:space="preserve">0:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст10</t>
-  </si>
-  <si>
     <t xml:space="preserve">ВК</t>
   </si>
   <si>
@@ -553,9 +577,6 @@
   </si>
   <si>
     <t xml:space="preserve">Анастасия Андреева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Леша Смолянинов</t>
   </si>
   <si>
     <t xml:space="preserve">Команды КЛШ 2022</t>
@@ -1054,7 +1075,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1087,10 +1108,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1099,7 +1116,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1208,10 +1225,10 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="K46" activeCellId="0" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
@@ -2189,55 +2206,370 @@
       <c r="A35" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,11 +2645,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E141" activeCellId="0" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
@@ -2327,19 +2659,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -2364,7 +2696,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -2378,7 +2710,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2</v>
@@ -2392,7 +2724,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>2</v>
@@ -2406,7 +2738,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
@@ -2420,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>2</v>
@@ -2434,7 +2766,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
@@ -2448,7 +2780,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
@@ -2462,7 +2794,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
@@ -2476,7 +2808,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
@@ -2490,7 +2822,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
@@ -2504,7 +2836,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
@@ -2518,7 +2850,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2</v>
@@ -2532,7 +2864,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2</v>
@@ -2546,7 +2878,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2</v>
@@ -2560,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
@@ -2574,7 +2906,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1</v>
@@ -2588,7 +2920,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2</v>
@@ -2602,7 +2934,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>1</v>
@@ -2616,7 +2948,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
@@ -2630,7 +2962,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
@@ -2644,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2</v>
@@ -2658,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2</v>
@@ -2672,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2</v>
@@ -2686,7 +3018,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>1</v>
@@ -2700,7 +3032,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>2</v>
@@ -2714,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>2</v>
@@ -2728,7 +3060,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>1</v>
@@ -2742,7 +3074,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2</v>
@@ -2756,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>2</v>
@@ -2770,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>1</v>
@@ -2784,7 +3116,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>2</v>
@@ -2798,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>1</v>
@@ -2812,7 +3144,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>1</v>
@@ -2826,7 +3158,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>1</v>
@@ -2840,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>1</v>
@@ -2854,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>2</v>
@@ -2868,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1</v>
@@ -2882,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
@@ -2896,7 +3228,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>1</v>
@@ -2910,7 +3242,7 @@
         <v>32</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2</v>
@@ -2924,7 +3256,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>1</v>
@@ -2938,7 +3270,7 @@
         <v>19</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2</v>
@@ -2952,7 +3284,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>2</v>
@@ -2966,7 +3298,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -2980,7 +3312,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -2994,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>1</v>
@@ -3008,7 +3340,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>2</v>
@@ -3022,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>2</v>
@@ -3036,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>2</v>
@@ -3050,7 +3382,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>2</v>
@@ -3064,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>2</v>
@@ -3078,7 +3410,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>1</v>
@@ -3092,7 +3424,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>2</v>
@@ -3106,7 +3438,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>1</v>
@@ -3120,7 +3452,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2</v>
@@ -3134,7 +3466,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>1</v>
@@ -3148,7 +3480,7 @@
         <v>23</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>2</v>
@@ -3162,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>1</v>
@@ -3176,7 +3508,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>2</v>
@@ -3190,7 +3522,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>1</v>
@@ -3204,7 +3536,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>2</v>
@@ -3218,7 +3550,7 @@
         <v>36</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>1</v>
@@ -3232,7 +3564,7 @@
         <v>31</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>1</v>
@@ -3246,7 +3578,7 @@
         <v>36</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>2</v>
@@ -3260,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>1</v>
@@ -3274,7 +3606,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2</v>
@@ -3288,7 +3620,7 @@
         <v>48</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>2</v>
@@ -3302,7 +3634,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>1</v>
@@ -3316,7 +3648,7 @@
         <v>48</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>1</v>
@@ -3330,7 +3662,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>2</v>
@@ -3344,7 +3676,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>1</v>
@@ -3358,7 +3690,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>2</v>
@@ -3372,7 +3704,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>2</v>
@@ -3386,7 +3718,7 @@
         <v>28</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>2</v>
@@ -3400,7 +3732,7 @@
         <v>28</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>2</v>
@@ -3414,7 +3746,7 @@
         <v>43</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>1</v>
@@ -3428,7 +3760,7 @@
         <v>12</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1</v>
@@ -3442,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>1</v>
@@ -3456,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>1</v>
@@ -3470,7 +3802,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>1</v>
@@ -3484,7 +3816,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>2</v>
@@ -3498,7 +3830,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>1</v>
@@ -3512,7 +3844,7 @@
         <v>20</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>2</v>
@@ -3526,7 +3858,7 @@
         <v>20</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>1</v>
@@ -3540,7 +3872,7 @@
         <v>20</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>2</v>
@@ -3554,7 +3886,7 @@
         <v>19</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>2</v>
@@ -3568,7 +3900,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>1</v>
@@ -3582,7 +3914,7 @@
         <v>27</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>1</v>
@@ -3596,7 +3928,7 @@
         <v>27</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>2</v>
@@ -3610,7 +3942,7 @@
         <v>27</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>1</v>
@@ -3624,7 +3956,7 @@
         <v>39</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2</v>
@@ -3638,7 +3970,7 @@
         <v>39</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
@@ -3652,7 +3984,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
@@ -3666,7 +3998,7 @@
         <v>35</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>1</v>
@@ -3680,7 +4012,7 @@
         <v>35</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>2</v>
@@ -3694,7 +4026,7 @@
         <v>44</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>2</v>
@@ -3708,7 +4040,7 @@
         <v>44</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>2</v>
@@ -3722,7 +4054,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>1</v>
@@ -3736,7 +4068,7 @@
         <v>44</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1</v>
@@ -3750,7 +4082,7 @@
         <v>35</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>1</v>
@@ -3760,215 +4092,667 @@
       <c r="A103" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3990,11 +4774,11 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y12" activeCellId="0" sqref="Y12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
@@ -4006,7 +4790,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="0" width="3.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="10.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,43 +4859,43 @@
       <c r="W1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>146</v>
+      <c r="X1" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="E2" s="0" t="s">
-        <v>147</v>
+      <c r="B2" s="9"/>
+      <c r="C2" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X2" s="9" t="n">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="B3" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="F3" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="X3" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="X3" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4120,36 +4903,36 @@
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="H4" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="X4" s="9" t="n">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="X4" s="8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="O5" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X5" s="9" t="n">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="X5" s="8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,16 +4940,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="P6" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="X6" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="X6" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4174,17 +4957,17 @@
       <c r="A7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="I7" s="0" t="s">
-        <v>154</v>
+      <c r="G7" s="9"/>
+      <c r="I7" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X7" s="9" t="n">
+        <v>166</v>
+      </c>
+      <c r="X7" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4193,16 +4976,16 @@
         <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="J8" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="X8" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="X8" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4211,53 +4994,53 @@
         <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="I9" s="9"/>
       <c r="J9" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X9" s="9" t="n">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="X9" s="8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>155</v>
+      <c r="H10" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="T10" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X10" s="9" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="X10" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="X11" s="9" t="n">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="X11" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,16 +5048,16 @@
         <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L12" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="L12" s="9"/>
       <c r="O12" s="0" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X12" s="9" t="n">
+        <v>166</v>
+      </c>
+      <c r="X12" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4283,16 +5066,16 @@
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="M13" s="9"/>
       <c r="T13" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X13" s="9" t="n">
+        <v>166</v>
+      </c>
+      <c r="X13" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4301,16 +5084,16 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="N14" s="9"/>
       <c r="Q14" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="X14" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="X14" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4319,18 +5102,18 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="9"/>
       <c r="W15" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X15" s="9" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="X15" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,16 +5121,16 @@
         <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="P16" s="9"/>
       <c r="R16" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="X16" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="X16" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4355,17 +5138,17 @@
       <c r="A17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>149</v>
+      <c r="E17" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q17" s="10"/>
-      <c r="X17" s="9" t="n">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="X17" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4374,16 +5157,16 @@
         <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="R18" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="R18" s="9"/>
       <c r="S18" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="X18" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="X18" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4392,17 +5175,17 @@
         <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="S19" s="10"/>
-      <c r="X19" s="9" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="X19" s="8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,17 +5193,17 @@
         <v>35</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="T20" s="10"/>
-      <c r="X20" s="9" t="n">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="T20" s="9"/>
+      <c r="X20" s="8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,17 +5211,17 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="U21" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="U21" s="9"/>
       <c r="W21" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="X21" s="9" t="n">
-        <v>3</v>
+        <v>166</v>
+      </c>
+      <c r="X21" s="8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,16 +5229,16 @@
         <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="V22" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="V22" s="9"/>
       <c r="W22" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="X22" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="X22" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,17 +5247,17 @@
         <v>52</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="9" t="n">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="X23" s="8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4499,7 +5282,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
   </cols>
@@ -4536,27 +5319,27 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +5374,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,19 +5428,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,7 +5453,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -4686,7 +5469,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -4699,10 +5482,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -4718,7 +5501,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -4728,13 +5511,13 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>174</v>
+      <c r="B6" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -4750,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -4766,7 +5549,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -4782,7 +5565,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -4798,7 +5581,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>40</v>
@@ -4814,7 +5597,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -4830,7 +5613,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -4846,7 +5629,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -4862,7 +5645,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -4878,7 +5661,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -4894,7 +5677,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
@@ -4910,7 +5693,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>28</v>
@@ -4926,7 +5709,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>28</v>
@@ -4942,7 +5725,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
@@ -4958,7 +5741,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>36</v>
@@ -4974,7 +5757,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -4990,7 +5773,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>51</v>
@@ -5001,12 +5784,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>35</v>
@@ -5022,7 +5805,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -5038,7 +5821,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>47</v>
@@ -5054,7 +5837,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -5070,7 +5853,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -5084,7 +5867,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -5095,10 +5878,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -5112,7 +5895,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -5126,7 +5909,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -5139,7 +5922,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -5148,7 +5931,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5185,237 +5968,237 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>185</v>
+      <c r="A3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>187</v>
+      <c r="A4" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>191</v>
+      <c r="A5" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>194</v>
+      <c r="A6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>198</v>
+      <c r="A7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>202</v>
+      <c r="A8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>206</v>
+      <c r="A9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>211</v>
+      <c r="A10" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>215</v>
+      <c r="A11" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>221</v>
+      <c r="A12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
@@ -5425,51 +6208,51 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>225</v>
+      <c r="A13" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>229</v>
+      <c r="A14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -5480,46 +6263,46 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>233</v>
+      <c r="A15" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>237</v>
+      <c r="A16" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -5530,11 +6313,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>241</v>
+      <c r="A17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -5544,30 +6327,30 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>244</v>
+      <c r="A18" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -5578,17 +6361,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>248</v>
+      <c r="A19" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -5599,110 +6382,110 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>252</v>
+      <c r="A20" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>256</v>
+      <c r="A21" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>260</v>
+      <c r="A22" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>264</v>
+      <c r="A23" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>268</v>
+      <c r="A24" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -5713,27 +6496,27 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>272</v>
+      <c r="A25" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,7 +6549,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,18 +6571,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,7 +6611,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +6645,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,7 +6662,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +6679,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,7 +6696,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5930,7 +6713,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5947,7 +6730,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,7 +6747,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,7 +6764,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,7 +6781,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,7 +6798,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="296">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -516,7 +516,10 @@
     <t xml:space="preserve">Ваня Трофимов, Егор Адиятов, Андрей Мордасевич, обменка</t>
   </si>
   <si>
-    <t xml:space="preserve">Вика Луковская, Игорь Скрипко, задача 1???</t>
+    <t xml:space="preserve">Остапчук Ксения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вика Луковская, Игорь Скрипко, задача 2???</t>
   </si>
   <si>
     <t xml:space="preserve">Темирлан</t>
@@ -1228,7 +1231,7 @@
       <selection pane="topLeft" activeCell="K46" activeCellId="0" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
@@ -2646,10 +2649,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E141" activeCellId="0" sqref="E141"/>
+      <selection pane="topLeft" activeCell="E146" activeCellId="0" sqref="E146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
@@ -4701,13 +4704,10 @@
         <v>15</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4724,7 @@
         <v>2</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,7 +4735,7 @@
         <v>48</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>2</v>
@@ -4778,7 +4778,7 @@
       <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
@@ -4860,7 +4860,7 @@
         <v>52</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,13 +4869,13 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X2" s="8" t="n">
         <v>6</v>
@@ -4886,14 +4886,14 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="9"/>
       <c r="F3" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X3" s="8" t="n">
         <v>3</v>
@@ -4905,13 +4905,13 @@
       </c>
       <c r="D4" s="9"/>
       <c r="H4" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="S4" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X4" s="8" t="n">
         <v>2</v>
@@ -4923,13 +4923,13 @@
       </c>
       <c r="E5" s="9"/>
       <c r="O5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X5" s="8" t="n">
         <v>6</v>
@@ -4940,14 +4940,14 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F6" s="9"/>
       <c r="P6" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X6" s="8" t="n">
         <v>2</v>
@@ -4959,13 +4959,13 @@
       </c>
       <c r="G7" s="9"/>
       <c r="I7" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="V7" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X7" s="8" t="n">
         <v>4</v>
@@ -4976,14 +4976,14 @@
         <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="H8" s="9"/>
       <c r="J8" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X8" s="8" t="n">
         <v>2</v>
@@ -4994,14 +4994,14 @@
         <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X9" s="8" t="n">
         <v>6</v>
@@ -5012,14 +5012,14 @@
         <v>39</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J10" s="9"/>
       <c r="T10" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X10" s="8" t="n">
         <v>4</v>
@@ -5031,13 +5031,13 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X11" s="8" t="n">
         <v>4</v>
@@ -5048,14 +5048,14 @@
         <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L12" s="9"/>
       <c r="O12" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="X12" s="8" t="n">
         <v>2</v>
@@ -5066,14 +5066,14 @@
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" s="9"/>
       <c r="T13" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X13" s="8" t="n">
         <v>2</v>
@@ -5084,14 +5084,14 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" s="9"/>
       <c r="Q14" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X14" s="8" t="n">
         <v>0</v>
@@ -5102,15 +5102,15 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="9"/>
       <c r="W15" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X15" s="8" t="n">
         <v>4</v>
@@ -5121,14 +5121,14 @@
         <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P16" s="9"/>
       <c r="R16" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X16" s="8" t="n">
         <v>0</v>
@@ -5139,13 +5139,13 @@
         <v>36</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="N17" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="X17" s="8" t="n">
@@ -5157,14 +5157,14 @@
         <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X18" s="8" t="n">
         <v>2</v>
@@ -5175,13 +5175,13 @@
         <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="R19" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S19" s="9"/>
       <c r="X19" s="8" t="n">
@@ -5193,13 +5193,13 @@
         <v>35</v>
       </c>
       <c r="J20" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="T20" s="9"/>
       <c r="X20" s="8" t="n">
@@ -5211,14 +5211,14 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U21" s="9"/>
       <c r="W21" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X21" s="8" t="n">
         <v>5</v>
@@ -5229,14 +5229,14 @@
         <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X22" s="8" t="n">
         <v>0</v>
@@ -5247,13 +5247,13 @@
         <v>52</v>
       </c>
       <c r="O23" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="V23" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="8" t="n">
@@ -5282,7 +5282,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
   </cols>
@@ -5319,27 +5319,27 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,7 +5374,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,19 +5428,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,7 +5453,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -5469,7 +5469,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -5482,10 +5482,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -5501,7 +5501,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -5512,12 +5512,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -5533,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -5549,7 +5549,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -5565,7 +5565,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>40</v>
@@ -5597,7 +5597,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -5613,7 +5613,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -5629,7 +5629,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -5645,7 +5645,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -5677,7 +5677,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
@@ -5693,7 +5693,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>28</v>
@@ -5709,7 +5709,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>28</v>
@@ -5725,7 +5725,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
@@ -5741,7 +5741,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>36</v>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -5773,7 +5773,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>51</v>
@@ -5784,12 +5784,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>35</v>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -5821,7 +5821,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>47</v>
@@ -5837,7 +5837,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -5853,7 +5853,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -5867,7 +5867,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -5881,7 +5881,7 @@
         <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -5895,7 +5895,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -5922,7 +5922,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -5931,7 +5931,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5969,7 +5969,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5979,168 +5979,168 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
@@ -6148,46 +6148,46 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2</v>
@@ -6195,10 +6195,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
@@ -6208,51 +6208,51 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -6264,45 +6264,45 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -6314,10 +6314,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -6327,30 +6327,30 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -6362,16 +6362,16 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -6383,68 +6383,68 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
@@ -6452,40 +6452,40 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -6497,26 +6497,26 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6538,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,7 +6549,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,18 +6571,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,7 +6611,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,7 +6645,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6662,7 +6662,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +6679,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,7 +6696,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,7 +6713,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,7 +6730,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,7 +6747,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,7 +6764,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,7 +6781,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,7 +6798,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="321">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -510,21 +510,63 @@
     <t xml:space="preserve">Миша Торшин</t>
   </si>
   <si>
+    <t xml:space="preserve">Остапчук Ксения</t>
+  </si>
+  <si>
     <t xml:space="preserve">????</t>
   </si>
   <si>
-    <t xml:space="preserve">Ваня Трофимов, Егор Адиятов, Андрей Мордасевич, обменка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Остапчук Ксения</t>
-  </si>
-  <si>
     <t xml:space="preserve">Вика Луковская, Игорь Скрипко, задача 2???</t>
   </si>
   <si>
     <t xml:space="preserve">Темирлан</t>
   </si>
   <si>
+    <t xml:space="preserve">Казанцева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тучина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Селедкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Силаева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Совкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куйбида</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван Похабов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимофей Спрыжков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леонтьев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марк Пропушкин, Лиза Моисеева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аникутин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мариинский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кобяков</t>
+  </si>
+  <si>
     <t xml:space="preserve">sum</t>
   </si>
   <si>
@@ -534,7 +576,40 @@
     <t xml:space="preserve">0:2</t>
   </si>
   <si>
+    <t xml:space="preserve">ст2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст8</t>
   </si>
   <si>
     <t xml:space="preserve">ВК</t>
@@ -1078,7 +1153,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1109,6 +1184,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1225,13 +1304,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K46" activeCellId="0" sqref="K46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
@@ -2579,55 +2658,428 @@
       <c r="A46" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2648,11 +3100,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E146" activeCellId="0" sqref="E146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="D198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
@@ -4589,13 +5041,10 @@
         <v>20</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +5153,7 @@
         <v>15</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>2</v>
@@ -4718,13 +5167,13 @@
         <v>15</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,7 +5184,7 @@
         <v>48</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>2</v>
@@ -4752,6 +5201,681 @@
         <v>92</v>
       </c>
       <c r="D149" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D163" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D165" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D167" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D168" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D169" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D171" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D175" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D176" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D177" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D178" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D181" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D184" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D185" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D186" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D187" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D189" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D190" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D191" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D192" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D195" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D197" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4775,10 +5899,10 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
+      <selection pane="topLeft" activeCell="AA11" activeCellId="0" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
@@ -4790,6 +5914,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="0" width="3.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="10.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,25 +5984,31 @@
       <c r="W1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>166</v>
+      <c r="X1" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X2" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="X2" s="9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4886,34 +6017,46 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="0" t="s">
+        <v>181</v>
+      </c>
       <c r="F3" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="X3" s="8" t="n">
-        <v>3</v>
+        <v>185</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="F4" s="0" t="s">
+        <v>186</v>
+      </c>
       <c r="H4" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X4" s="8" t="n">
+        <v>182</v>
+      </c>
+      <c r="X4" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4921,18 +6064,24 @@
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="B5" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="O5" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X5" s="8" t="n">
-        <v>6</v>
+        <v>181</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X5" s="9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,16 +6089,22 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="0" t="s">
+        <v>182</v>
+      </c>
       <c r="P6" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X6" s="8" t="n">
+        <v>182</v>
+      </c>
+      <c r="X6" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4957,18 +6112,24 @@
       <c r="A7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="I7" s="10" t="s">
-        <v>168</v>
+      <c r="B7" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="I7" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X7" s="8" t="n">
-        <v>4</v>
+        <v>181</v>
+      </c>
+      <c r="X7" s="9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,34 +6137,46 @@
         <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="J8" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X8" s="8" t="n">
-        <v>2</v>
+        <v>182</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="X8" s="9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>184</v>
+      </c>
       <c r="G9" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X9" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X9" s="9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5011,17 +6184,23 @@
       <c r="A10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>167</v>
+      <c r="G10" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="M10" s="0" t="s">
+        <v>189</v>
+      </c>
       <c r="T10" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X10" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="X10" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5029,17 +6208,23 @@
       <c r="A11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="H11" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="10"/>
       <c r="L11" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X11" s="8" t="n">
+        <v>182</v>
+      </c>
+      <c r="X11" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5048,16 +6233,22 @@
         <v>44</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="0" t="s">
+        <v>182</v>
+      </c>
       <c r="O12" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>190</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X12" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="X12" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5066,17 +6257,23 @@
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="10"/>
       <c r="T13" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X13" s="8" t="n">
-        <v>2</v>
+        <v>181</v>
+      </c>
+      <c r="X13" s="9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,17 +6281,23 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="N14" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="N14" s="10"/>
       <c r="Q14" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X14" s="8" t="n">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="X14" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,18 +6305,24 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="S15" s="0" t="s">
+        <v>192</v>
+      </c>
       <c r="W15" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X15" s="8" t="n">
-        <v>4</v>
+        <v>181</v>
+      </c>
+      <c r="X15" s="9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,17 +6330,23 @@
         <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="P16" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" s="10"/>
       <c r="R16" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X16" s="8" t="n">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="X16" s="9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,16 +6354,22 @@
         <v>36</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="X17" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5157,17 +6378,23 @@
         <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="R18" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="R18" s="10"/>
       <c r="S18" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X18" s="8" t="n">
-        <v>2</v>
+        <v>182</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" s="9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,17 +6402,23 @@
         <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="S19" s="9"/>
-      <c r="X19" s="8" t="n">
-        <v>4</v>
+        <v>181</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="X19" s="9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,16 +6426,22 @@
         <v>35</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="T20" s="9"/>
-      <c r="X20" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="V20" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5211,17 +6450,23 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="U21" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="U21" s="10"/>
       <c r="W21" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="X21" s="8" t="n">
-        <v>5</v>
+        <v>181</v>
+      </c>
+      <c r="X21" s="9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,34 +6474,46 @@
         <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="V22" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="V22" s="10"/>
       <c r="W22" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="X22" s="8" t="n">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="X22" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="N23" s="0" t="s">
+        <v>191</v>
+      </c>
       <c r="O23" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="8" t="n">
+        <v>181</v>
+      </c>
+      <c r="W23" s="10"/>
+      <c r="X23" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5282,7 +6539,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
   </cols>
@@ -5319,27 +6576,27 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,7 +6631,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,10 +6670,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5428,19 +6685,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,7 +6710,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -5469,7 +6726,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -5482,10 +6739,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
@@ -5501,7 +6758,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -5511,13 +6768,13 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>183</v>
+      <c r="B6" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -5533,7 +6790,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -5549,7 +6806,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -5565,7 +6822,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -5581,7 +6838,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>40</v>
@@ -5597,7 +6854,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -5613,7 +6870,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -5629,7 +6886,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -5645,7 +6902,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -5661,7 +6918,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>27</v>
@@ -5677,7 +6934,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
@@ -5693,7 +6950,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>28</v>
@@ -5709,7 +6966,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>28</v>
@@ -5725,7 +6982,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>43</v>
@@ -5741,7 +6998,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>36</v>
@@ -5757,7 +7014,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -5773,7 +7030,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>51</v>
@@ -5784,12 +7041,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>35</v>
@@ -5805,7 +7062,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -5821,7 +7078,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>47</v>
@@ -5837,7 +7094,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -5853,7 +7110,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -5867,7 +7124,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -5881,7 +7138,7 @@
         <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -5895,7 +7152,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -5909,7 +7166,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -5922,7 +7179,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -5931,7 +7188,15 @@
         <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>180</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5968,237 +7233,237 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>193</v>
+      <c r="A3" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>195</v>
+      <c r="A4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>199</v>
+      <c r="A5" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>202</v>
+      <c r="A6" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>206</v>
+      <c r="A7" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>210</v>
+      <c r="A8" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>214</v>
+      <c r="A9" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>219</v>
+      <c r="A10" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>223</v>
+      <c r="A11" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>229</v>
+      <c r="A12" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>38</v>
@@ -6208,51 +7473,51 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>233</v>
+      <c r="A13" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>237</v>
+      <c r="A14" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -6263,46 +7528,46 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>241</v>
+      <c r="A15" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>245</v>
+      <c r="A16" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -6313,11 +7578,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>249</v>
+      <c r="A17" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -6327,30 +7592,30 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>252</v>
+      <c r="A18" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -6361,17 +7626,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>256</v>
+      <c r="A19" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -6382,110 +7647,110 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>260</v>
+      <c r="A20" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>264</v>
+      <c r="A21" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>268</v>
+      <c r="A22" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>272</v>
+      <c r="A23" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>276</v>
+      <c r="A24" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -6496,27 +7761,27 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>280</v>
+      <c r="A25" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,7 +7792,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6538,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,18 +7836,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,7 +7876,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="3" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,7 +7893,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,7 +7910,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6662,7 +7927,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +7944,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,7 +7961,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,7 +7978,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,7 +7995,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,7 +8012,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,7 +8029,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,7 +8046,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,7 +8063,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
@@ -1153,7 +1153,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1184,10 +1184,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1306,11 +1302,11 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
@@ -3100,11 +3096,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="D198"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A174" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A223" activeCellId="0" sqref="A223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
@@ -5877,6 +5873,131 @@
       </c>
       <c r="D197" s="1" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5902,7 +6023,7 @@
       <selection pane="topLeft" activeCell="AA11" activeCellId="0" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
@@ -5914,7 +6035,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="0" width="3.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="10.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +6104,7 @@
       <c r="W1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5992,7 +6112,7 @@
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="0" t="s">
         <v>181</v>
       </c>
@@ -6008,7 +6128,7 @@
       <c r="S2" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6019,7 +6139,7 @@
       <c r="B3" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="0" t="s">
         <v>181</v>
       </c>
@@ -6032,7 +6152,7 @@
       <c r="U3" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6043,7 +6163,7 @@
       <c r="C4" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="F4" s="0" t="s">
         <v>186</v>
       </c>
@@ -6056,7 +6176,7 @@
       <c r="S4" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="X4" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6067,7 +6187,7 @@
       <c r="B5" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="O5" s="0" t="s">
         <v>181</v>
       </c>
@@ -6080,7 +6200,7 @@
       <c r="U5" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="X5" s="8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6094,7 +6214,7 @@
       <c r="D6" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="H6" s="0" t="s">
         <v>182</v>
       </c>
@@ -6104,7 +6224,7 @@
       <c r="U6" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="X6" s="9" t="n">
+      <c r="X6" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6115,8 +6235,8 @@
       <c r="B7" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="9"/>
+      <c r="I7" s="10" t="s">
         <v>182</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -6128,7 +6248,7 @@
       <c r="V7" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X7" s="9" t="n">
+      <c r="X7" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6145,14 +6265,14 @@
       <c r="F8" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9"/>
       <c r="J8" s="0" t="s">
         <v>182</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="X8" s="9" t="n">
+      <c r="X8" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6166,7 +6286,7 @@
       <c r="G9" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="0" t="s">
         <v>181</v>
       </c>
@@ -6176,7 +6296,7 @@
       <c r="U9" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="X9" s="9" t="n">
+      <c r="X9" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6187,20 +6307,20 @@
       <c r="G10" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>181</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
       <c r="M10" s="0" t="s">
         <v>189</v>
       </c>
       <c r="T10" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X10" s="9" t="n">
+      <c r="X10" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6211,7 +6331,7 @@
       <c r="H11" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="0" t="s">
         <v>181</v>
       </c>
@@ -6224,7 +6344,7 @@
       <c r="Q11" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="X11" s="9" t="n">
+      <c r="X11" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6235,7 +6355,7 @@
       <c r="K12" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="0" t="s">
         <v>182</v>
       </c>
@@ -6248,7 +6368,7 @@
       <c r="V12" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X12" s="9" t="n">
+      <c r="X12" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6268,11 +6388,11 @@
       <c r="L13" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="9"/>
       <c r="T13" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X13" s="9" t="n">
+      <c r="X13" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6286,7 +6406,7 @@
       <c r="G14" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="9"/>
       <c r="Q14" s="0" t="s">
         <v>182</v>
       </c>
@@ -6296,7 +6416,7 @@
       <c r="W14" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="X14" s="9" t="n">
+      <c r="X14" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,15 +6433,15 @@
       <c r="L15" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="9"/>
       <c r="S15" s="0" t="s">
         <v>192</v>
       </c>
       <c r="W15" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X15" s="9" t="n">
+      <c r="X15" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6335,7 +6455,7 @@
       <c r="L16" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="10"/>
+      <c r="P16" s="9"/>
       <c r="R16" s="0" t="s">
         <v>182</v>
       </c>
@@ -6345,7 +6465,7 @@
       <c r="W16" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="9" t="n">
+      <c r="X16" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6362,14 +6482,14 @@
       <c r="N17" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="0" t="s">
         <v>193</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="X17" s="9" t="n">
+      <c r="X17" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6386,14 +6506,14 @@
       <c r="Q18" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="10"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="0" t="s">
         <v>182</v>
       </c>
       <c r="T18" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X18" s="9" t="n">
+      <c r="X18" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6416,8 +6536,8 @@
       <c r="R19" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="X19" s="9" t="n">
+      <c r="S19" s="9"/>
+      <c r="X19" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6437,11 +6557,11 @@
       <c r="R20" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="T20" s="10"/>
+      <c r="T20" s="9"/>
       <c r="V20" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="X20" s="9" t="n">
+      <c r="X20" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6461,11 +6581,11 @@
       <c r="I21" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="9"/>
       <c r="W21" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="X21" s="9" t="n">
+      <c r="X21" s="8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6485,11 +6605,11 @@
       <c r="T22" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="V22" s="10"/>
+      <c r="V22" s="9"/>
       <c r="W22" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="X22" s="9" t="n">
+      <c r="X22" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6512,8 +6632,8 @@
       <c r="V23" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="9" t="n">
+      <c r="W23" s="9"/>
+      <c r="X23" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6539,7 +6659,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
   </cols>
@@ -6768,7 +6888,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>208</v>
       </c>
       <c r="C6" s="4"/>
@@ -7233,14 +7353,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
@@ -7251,30 +7371,30 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -7295,10 +7415,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -7319,10 +7439,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7343,10 +7463,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -7367,10 +7487,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -7391,10 +7511,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>239</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -7412,10 +7532,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>244</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -7436,10 +7556,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>248</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -7459,10 +7579,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>254</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -7483,10 +7603,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -7507,10 +7627,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>262</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -7528,10 +7648,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>266</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -7557,10 +7677,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>270</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -7578,10 +7698,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -7605,10 +7725,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>277</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -7626,10 +7746,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>281</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7647,10 +7767,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -7671,10 +7791,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>289</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -7695,10 +7815,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>293</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -7716,10 +7836,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>297</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -7740,10 +7860,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -7761,10 +7881,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>305</v>
       </c>
       <c r="C25" s="6" t="s">

--- a/fmt_2022_results.xlsx
+++ b/fmt_2022_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="304">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -60,6 +60,18 @@
     <t xml:space="preserve">result_b</t>
   </si>
   <si>
+    <t xml:space="preserve">res_a10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res_b10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">дельта</t>
   </si>
   <si>
@@ -303,16 +315,16 @@
     <t xml:space="preserve">judge</t>
   </si>
   <si>
-    <t xml:space="preserve">Пономарева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бабушкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кассал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клим Атамасов</t>
+    <t xml:space="preserve">Пономарева Арина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бабушкин Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кассал Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Атамасов Клим</t>
   </si>
   <si>
     <t xml:space="preserve">Хмельницкая Марина</t>
@@ -327,85 +339,85 @@
     <t xml:space="preserve">Торшин Михаил</t>
   </si>
   <si>
-    <t xml:space="preserve">Грошева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шевцова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яковлев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шестаков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Федоров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моисеев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Саванина</t>
+    <t xml:space="preserve">Грошева Варвара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шеховцова Вероника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанова Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яковлев Демьян</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шестаков Вячеслав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марков Семен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федоров Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моисеев Богдан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саванина Софья</t>
   </si>
   <si>
     <t xml:space="preserve">Фалейчик Никита</t>
   </si>
   <si>
-    <t xml:space="preserve">Плотник</t>
+    <t xml:space="preserve">Плотников Андрей</t>
   </si>
   <si>
     <t xml:space="preserve">Похабов Иван</t>
   </si>
   <si>
-    <t xml:space="preserve">Рыжемова Алина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колупаева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шидловская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шарковская</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрыжков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тимошков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соколовский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Казаринова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Янушевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Москвин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тимофеев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зелинский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Муковозчик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Серов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карпенко</t>
+    <t xml:space="preserve">Рыженкова Алина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колупаева Соня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шидловская Кристина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шарковская Антонина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрыжков Тимофей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимошков Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соколовский Степан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казаринова Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Янушевич Полина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москвин Миша</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тимофеев Вова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зеленский Виктор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Муковозчик Артем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Серов Никита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпенко Иван</t>
   </si>
   <si>
     <t xml:space="preserve">Искалиев Андрей</t>
@@ -417,97 +429,52 @@
     <t xml:space="preserve">Носков Владимир</t>
   </si>
   <si>
-    <t xml:space="preserve">Лев Сигов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимир Тимофеев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лисин Рома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Судницина Настя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атамасов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мельницкая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марков Семен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Киреев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гайдалиев Тамерлан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юхновец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мельниченко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дмитриева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новикова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алиса Силаева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настя Молюкина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Муляр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рыженкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кравченко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шеховцова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петрухина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Федоров Владимир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яковлев Демьян</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артем Муковозчик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шестаков Вячеслав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миша Москвин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктор Зелинский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Слава</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артем М</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хитрук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миша Торшин</t>
+    <t xml:space="preserve">Сигов Лев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лисин Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Судницына Настя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеенко Александра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киреев Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Байдалиев Тамирлан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юхновец Полина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельниченко Таисия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дмитриева Марина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новикова Ксения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Силаева Алиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мулюкина Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Муляр Виктор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кравченко Кира</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрухина Светлана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хитрун Полина</t>
   </si>
   <si>
     <t xml:space="preserve">Остапчук Ксения</t>
@@ -519,52 +486,61 @@
     <t xml:space="preserve">Вика Луковская, Игорь Скрипко, задача 2???</t>
   </si>
   <si>
-    <t xml:space="preserve">Темирлан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Казанцева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тучина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Селедкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Силаева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Совкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куйбида</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Похабов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тимофей Спрыжков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Леонтьев</t>
+    <t xml:space="preserve">не влияет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казанцева Лили</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тучина Катя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Селедкин Владислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Савкова София</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куйбида Алена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леонтьев Дмитрий</t>
   </si>
   <si>
     <t xml:space="preserve">Марк Пропушкин, Лиза Моисеева</t>
   </si>
   <si>
-    <t xml:space="preserve">Москва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аникутин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексеенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мариинский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кобяков</t>
+    <t xml:space="preserve">Аникутин Миша</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мариинский Захар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Козелков Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чопик Таисия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скурковин Егор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванченко Вася</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Якименко Татьяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваня Карлов, Егор Адиятов, задача 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Король Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данилина Маргарита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вика Луковская, Макс Федянов, Лиза Моисеева</t>
   </si>
   <si>
     <t xml:space="preserve">sum</t>
@@ -576,40 +552,13 @@
     <t xml:space="preserve">0:2</t>
   </si>
   <si>
-    <t xml:space="preserve">ст2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст3</t>
-  </si>
-  <si>
     <t xml:space="preserve">1:1</t>
   </si>
   <si>
-    <t xml:space="preserve">ст11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст8</t>
+    <t xml:space="preserve">res_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res_corrected</t>
   </si>
   <si>
     <t xml:space="preserve">ВК</t>
@@ -1153,7 +1102,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,6 +1144,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1300,13 +1253,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L56" activeCellId="0" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.73"/>
@@ -1349,22 +1302,34 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,16 +1337,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,16 +1354,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,16 +1456,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,19 +1507,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>4</v>
@@ -1568,25 +1533,41 @@
       <c r="K13" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">J13*10</f>
+        <v>20</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">K13*10</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">H13+L13</f>
+        <v>24</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">M13+I13</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>5</v>
@@ -1600,28 +1581,44 @@
       <c r="K14" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">J14*10</f>
+        <v>20</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">K14*10</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">H14+L14</f>
+        <v>25</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">M14+I14</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>4</v>
@@ -1635,28 +1632,44 @@
       <c r="K15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">J15*10</f>
+        <v>20</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">K15*10</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">H15+L15</f>
+        <v>24</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">M15+I15</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>5</v>
@@ -1670,25 +1683,41 @@
       <c r="K16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">J16*10</f>
+        <v>20</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">K16*10</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">H16+L16</f>
+        <v>25</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">M16+I16</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
@@ -1702,25 +1731,41 @@
       <c r="K17" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">J17*10</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">K17*10</f>
+        <v>20</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">H17+L17</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">M17+I17</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
@@ -1734,25 +1779,41 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">J18*10</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">K18*10</f>
+        <v>20</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">H18+L18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">M18+I18</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>2</v>
@@ -1766,28 +1827,44 @@
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">J19*10</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">K19*10</f>
+        <v>20</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">H19+L19</f>
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">M19+I19</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
@@ -1801,28 +1878,44 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">J20*10</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">K20*10</f>
+        <v>20</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">H20+L20</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">M20+I20</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
@@ -1836,25 +1929,41 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">J21*10</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">K21*10</f>
+        <v>20</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">H21+L21</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">M21+I21</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>5</v>
@@ -1868,25 +1977,41 @@
       <c r="K22" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">J22*10</f>
+        <v>20</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">K22*10</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">H22+L22</f>
+        <v>25</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">M22+I22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
@@ -1900,28 +2025,44 @@
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">J23*10</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">K23*10</f>
+        <v>20</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">H23+L23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">M23+I23</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>3</v>
@@ -1935,28 +2076,44 @@
       <c r="K24" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">J24*10</f>
+        <v>20</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">K24*10</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">H24+L24</f>
+        <v>23</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">M24+I24</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>1</v>
@@ -1970,28 +2127,44 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">J25*10</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">K25*10</f>
+        <v>20</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">H25+L25</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">M25+I25</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -2005,28 +2178,44 @@
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">J26*10</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">K26*10</f>
+        <v>20</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">H26+L26</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">M26+I26</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>5</v>
@@ -2040,28 +2229,44 @@
       <c r="K27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">J27*10</f>
+        <v>10</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="false">K27*10</f>
+        <v>10</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">H27+L27</f>
+        <v>15</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">M27+I27</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>3</v>
@@ -2075,28 +2280,44 @@
       <c r="K28" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">J28*10</f>
+        <v>20</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="false">K28*10</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">H28+L28</f>
+        <v>23</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">M28+I28</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>3</v>
@@ -2110,28 +2331,44 @@
       <c r="K29" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">J29*10</f>
+        <v>20</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <f aca="false">K29*10</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">H29+L29</f>
+        <v>23</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">M29+I29</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>5</v>
@@ -2145,28 +2382,44 @@
       <c r="K30" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">J30*10</f>
+        <v>20</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="false">K30*10</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">H30+L30</f>
+        <v>25</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">M30+I30</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>5</v>
@@ -2180,25 +2433,41 @@
       <c r="K31" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">J31*10</f>
+        <v>20</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">K31*10</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">H31+L31</f>
+        <v>25</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">M31+I31</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D32" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>2</v>
@@ -2211,6 +2480,22 @@
       </c>
       <c r="K32" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">J32*10</f>
+        <v>20</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <f aca="false">K32*10</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">H32+L32</f>
+        <v>22</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">M32+I32</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,22 +2503,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>-1</v>
@@ -2247,25 +2532,41 @@
       <c r="K33" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">J33*10</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <f aca="false">K33*10</f>
+        <v>20</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">H33+L33</f>
+        <v>-1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">M33+I33</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
@@ -2278,6 +2579,22 @@
       </c>
       <c r="K34" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">J34*10</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <f aca="false">K34*10</f>
+        <v>20</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">H34+L34</f>
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">M34+I34</f>
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,22 +2602,22 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>3</v>
@@ -2313,6 +2630,22 @@
       </c>
       <c r="K35" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">J35*10</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="false">K35*10</f>
+        <v>20</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">H35+L35</f>
+        <v>3</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">M35+I35</f>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,22 +2653,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>3</v>
@@ -2348,6 +2681,22 @@
       </c>
       <c r="K36" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">J36*10</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <f aca="false">K36*10</f>
+        <v>20</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">H36+L36</f>
+        <v>3</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">M36+I36</f>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,22 +2704,22 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>3</v>
@@ -2383,6 +2732,22 @@
       </c>
       <c r="K37" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">J37*10</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="false">K37*10</f>
+        <v>20</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">H37+L37</f>
+        <v>3</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">M37+I37</f>
+        <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,22 +2755,22 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>1</v>
@@ -2418,6 +2783,22 @@
       </c>
       <c r="K38" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">J38*10</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="false">K38*10</f>
+        <v>20</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">H38+L38</f>
+        <v>1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">M38+I38</f>
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,19 +2806,19 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>3</v>
@@ -2450,6 +2831,22 @@
       </c>
       <c r="K39" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">J39*10</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <f aca="false">K39*10</f>
+        <v>20</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <f aca="false">H39+L39</f>
+        <v>3</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">M39+I39</f>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,19 +2854,19 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>-1</v>
@@ -2482,6 +2879,22 @@
       </c>
       <c r="K40" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">J40*10</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <f aca="false">K40*10</f>
+        <v>20</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">H40+L40</f>
+        <v>-1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="false">M40+I40</f>
+        <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,19 +2902,19 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="G41" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>4</v>
@@ -2514,6 +2927,22 @@
       </c>
       <c r="K41" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">J41*10</f>
+        <v>20</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <f aca="false">K41*10</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <f aca="false">H41+L41</f>
+        <v>24</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">M41+I41</f>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,22 +2950,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>-1</v>
@@ -2549,6 +2978,22 @@
       </c>
       <c r="K42" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">J42*10</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <f aca="false">K42*10</f>
+        <v>20</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <f aca="false">H42+L42</f>
+        <v>-1</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">M42+I42</f>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,22 +3001,22 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>0</v>
@@ -2584,6 +3029,22 @@
       </c>
       <c r="K43" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">J43*10</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <f aca="false">K43*10</f>
+        <v>20</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <f aca="false">H43+L43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">M43+I43</f>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,19 +3052,19 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>2</v>
@@ -2616,6 +3077,22 @@
       </c>
       <c r="K44" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">J44*10</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <f aca="false">K44*10</f>
+        <v>20</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">H44+L44</f>
+        <v>2</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">M44+I44</f>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,19 +3100,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>5</v>
@@ -2648,6 +3125,22 @@
       </c>
       <c r="K45" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">J45*10</f>
+        <v>20</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <f aca="false">K45*10</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <f aca="false">H45+L45</f>
+        <v>25</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">M45+I45</f>
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,22 +3148,22 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D46" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>4</v>
@@ -2683,6 +3176,22 @@
       </c>
       <c r="K46" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">J46*10</f>
+        <v>20</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <f aca="false">K46*10</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <f aca="false">H46+L46</f>
+        <v>24</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">M46+I46</f>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,19 +3199,19 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>2</v>
@@ -2714,6 +3223,22 @@
         <v>2</v>
       </c>
       <c r="K47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">J47*10</f>
+        <v>20</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <f aca="false">K47*10</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <f aca="false">H47+L47</f>
+        <v>22</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">M47+I47</f>
         <v>0</v>
       </c>
     </row>
@@ -2722,22 +3247,22 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>3</v>
@@ -2750,6 +3275,22 @@
       </c>
       <c r="K48" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">J48*10</f>
+        <v>20</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <f aca="false">K48*10</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <f aca="false">H48+L48</f>
+        <v>23</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">M48+I48</f>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,22 +3298,22 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>1</v>
@@ -2785,6 +3326,22 @@
       </c>
       <c r="K49" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">J49*10</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <f aca="false">K49*10</f>
+        <v>20</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <f aca="false">H49+L49</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">M49+I49</f>
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,22 +3349,22 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>2</v>
@@ -2820,6 +3377,22 @@
       </c>
       <c r="K50" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">J50*10</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <f aca="false">K50*10</f>
+        <v>20</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <f aca="false">H50+L50</f>
+        <v>2</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">M50+I50</f>
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,19 +3400,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>1</v>
@@ -2852,6 +3425,22 @@
       </c>
       <c r="K51" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">J51*10</f>
+        <v>10</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <f aca="false">K51*10</f>
+        <v>10</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <f aca="false">H51+L51</f>
+        <v>11</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">M51+I51</f>
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,22 +3448,22 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="G52" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>1</v>
@@ -2887,6 +3476,22 @@
       </c>
       <c r="K52" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">J52*10</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <f aca="false">K52*10</f>
+        <v>20</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <f aca="false">H52+L52</f>
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">M52+I52</f>
+        <v>27</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,22 +3499,22 @@
         <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>2</v>
@@ -2922,6 +3527,22 @@
       </c>
       <c r="K53" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">J53*10</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <f aca="false">K53*10</f>
+        <v>20</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <f aca="false">H53+L53</f>
+        <v>2</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">M53+I53</f>
+        <v>25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,19 +3550,19 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>4</v>
@@ -2954,6 +3575,22 @@
       </c>
       <c r="K54" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">J54*10</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <f aca="false">K54*10</f>
+        <v>20</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <f aca="false">H54+L54</f>
+        <v>4</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">M54+I54</f>
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,22 +3598,22 @@
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>2</v>
@@ -2989,6 +3626,22 @@
       </c>
       <c r="K55" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">J55*10</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <f aca="false">K55*10</f>
+        <v>20</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <f aca="false">H55+L55</f>
+        <v>2</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">M55+I55</f>
+        <v>24</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,86 +3649,599 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I56" s="1" t="n">
+      <c r="J56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">J56*10</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <f aca="false">K56*10</f>
+        <v>20</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <f aca="false">H56+L56</f>
         <v>3</v>
       </c>
-      <c r="J56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>0</v>
+      <c r="O56" s="0" t="n">
+        <f aca="false">M56+I56</f>
+        <v>24</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">J57*10</f>
+        <v>20</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <f aca="false">K57*10</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <f aca="false">H57+L57</f>
+        <v>24</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false">M57+I57</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">J58*10</f>
+        <v>20</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <f aca="false">K58*10</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <f aca="false">H58+L58</f>
+        <v>26</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="false">M58+I58</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">J59*10</f>
+        <v>20</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <f aca="false">K59*10</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <f aca="false">H59+L59</f>
+        <v>27</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="false">M59+I59</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">J60*10</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <f aca="false">K60*10</f>
+        <v>20</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <f aca="false">H60+L60</f>
+        <v>2</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <f aca="false">M60+I60</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">J61*10</f>
+        <v>20</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <f aca="false">K61*10</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <f aca="false">H61+L61</f>
+        <v>26</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <f aca="false">M61+I61</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">J62*10</f>
+        <v>20</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <f aca="false">K62*10</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <f aca="false">H62+L62</f>
+        <v>25</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <f aca="false">M62+I62</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">J63*10</f>
+        <v>10</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <f aca="false">K63*10</f>
+        <v>10</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <f aca="false">H63+L63</f>
+        <v>11</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <f aca="false">M63+I63</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">J64*10</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <f aca="false">K64*10</f>
+        <v>20</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <f aca="false">H64+L64</f>
+        <v>3</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <f aca="false">M64+I64</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">J65*10</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <f aca="false">K65*10</f>
+        <v>20</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <f aca="false">H65+L65</f>
+        <v>3</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <f aca="false">M65+I65</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">J66*10</f>
+        <v>20</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <f aca="false">K66*10</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <f aca="false">H66+L66</f>
+        <v>21</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <f aca="false">M66+I66</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">J67*10</f>
+        <v>20</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <f aca="false">K67*10</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <f aca="false">H67+L67</f>
+        <v>24</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <f aca="false">M67+I67</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3094,13 +4260,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A174" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A223" activeCellId="0" sqref="A223"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F243" activeCellId="0" sqref="F243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.79"/>
@@ -3110,19 +4276,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +4296,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -3144,10 +4310,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -3158,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2</v>
@@ -3172,10 +4338,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>2</v>
@@ -3186,10 +4352,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
@@ -3200,10 +4366,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>2</v>
@@ -3214,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
@@ -3228,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
@@ -3242,10 +4408,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
@@ -3256,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
@@ -3270,10 +4436,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
@@ -3284,10 +4450,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
@@ -3298,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2</v>
@@ -3312,10 +4478,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2</v>
@@ -3326,10 +4492,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2</v>
@@ -3340,10 +4506,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
@@ -3354,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1</v>
@@ -3368,10 +4534,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2</v>
@@ -3382,10 +4548,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>1</v>
@@ -3396,10 +4562,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
@@ -3410,10 +4576,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
@@ -3424,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2</v>
@@ -3438,10 +4604,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2</v>
@@ -3452,10 +4618,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2</v>
@@ -3466,10 +4632,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>1</v>
@@ -3480,10 +4646,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>2</v>
@@ -3494,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>2</v>
@@ -3508,10 +4674,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>1</v>
@@ -3522,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2</v>
@@ -3536,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>2</v>
@@ -3550,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>1</v>
@@ -3564,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>2</v>
@@ -3578,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>1</v>
@@ -3592,10 +4758,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>1</v>
@@ -3606,10 +4772,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>1</v>
@@ -3620,10 +4786,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>1</v>
@@ -3634,10 +4800,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>2</v>
@@ -3648,10 +4814,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1</v>
@@ -3662,10 +4828,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
@@ -3676,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>1</v>
@@ -3690,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2</v>
@@ -3704,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>1</v>
@@ -3718,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2</v>
@@ -3732,10 +4898,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>2</v>
@@ -3746,10 +4912,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -3760,10 +4926,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -3774,10 +4940,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>1</v>
@@ -3788,10 +4954,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>2</v>
@@ -3802,10 +4968,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>2</v>
@@ -3816,10 +4982,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>2</v>
@@ -3830,10 +4996,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>2</v>
@@ -3844,10 +5010,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>2</v>
@@ -3858,10 +5024,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>1</v>
@@ -3872,10 +5038,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>2</v>
@@ -3886,10 +5052,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>1</v>
@@ -3900,10 +5066,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2</v>
@@ -3914,10 +5080,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>1</v>
@@ -3928,10 +5094,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>2</v>
@@ -3942,10 +5108,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>1</v>
@@ -3956,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>2</v>
@@ -3970,10 +5136,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>1</v>
@@ -3984,10 +5150,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>2</v>
@@ -3998,10 +5164,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>1</v>
@@ -4012,10 +5178,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>1</v>
@@ -4026,10 +5192,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>2</v>
@@ -4040,10 +5206,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>1</v>
@@ -4054,10 +5220,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2</v>
@@ -4068,10 +5234,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>2</v>
@@ -4082,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>138</v>
@@ -4096,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>139</v>
@@ -4110,10 +5276,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>2</v>
@@ -4124,10 +5290,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>1</v>
@@ -4138,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>140</v>
@@ -4152,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>141</v>
@@ -4166,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>142</v>
@@ -4180,10 +5346,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>2</v>
@@ -4194,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>143</v>
@@ -4208,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>144</v>
@@ -4222,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>145</v>
@@ -4236,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>144</v>
@@ -4250,7 +5416,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>146</v>
@@ -4264,10 +5430,10 @@
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>2</v>
@@ -4278,10 +5444,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>1</v>
@@ -4292,10 +5458,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>2</v>
@@ -4306,10 +5472,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>1</v>
@@ -4320,10 +5486,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>2</v>
@@ -4334,10 +5500,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>2</v>
@@ -4348,10 +5514,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>1</v>
@@ -4362,10 +5528,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>1</v>
@@ -4376,10 +5542,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>2</v>
@@ -4390,10 +5556,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>1</v>
@@ -4404,10 +5570,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2</v>
@@ -4418,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
@@ -4432,10 +5598,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
@@ -4446,10 +5612,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>1</v>
@@ -4460,10 +5626,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>2</v>
@@ -4474,10 +5640,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>2</v>
@@ -4488,10 +5654,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>2</v>
@@ -4502,10 +5668,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>1</v>
@@ -4516,10 +5682,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1</v>
@@ -4530,10 +5696,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>1</v>
@@ -4544,10 +5710,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>2</v>
@@ -4558,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>2</v>
@@ -4572,10 +5738,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>2</v>
@@ -4586,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>2</v>
@@ -4600,10 +5766,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>1</v>
@@ -4614,10 +5780,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>1</v>
@@ -4628,10 +5794,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>2</v>
@@ -4642,10 +5808,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>2</v>
@@ -4656,10 +5822,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D111" s="1" t="n">
         <v>1</v>
@@ -4670,10 +5836,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>1</v>
@@ -4684,10 +5850,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>1</v>
@@ -4698,10 +5864,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>1</v>
@@ -4712,10 +5878,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>2</v>
@@ -4726,10 +5892,10 @@
         <v>3</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>2</v>
@@ -4740,10 +5906,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>2</v>
@@ -4754,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>1</v>
@@ -4768,10 +5934,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>2</v>
@@ -4782,10 +5948,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>3</v>
@@ -4796,10 +5962,10 @@
         <v>3</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>2</v>
@@ -4810,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>2</v>
@@ -4824,10 +5990,10 @@
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>1</v>
@@ -4838,10 +6004,10 @@
         <v>3</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D124" s="1" t="n">
         <v>2</v>
@@ -4852,10 +6018,10 @@
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>2</v>
@@ -4866,10 +6032,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>2</v>
@@ -4880,10 +6046,10 @@
         <v>3</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D127" s="1" t="n">
         <v>1</v>
@@ -4894,10 +6060,10 @@
         <v>3</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>2</v>
@@ -4908,10 +6074,10 @@
         <v>3</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>2</v>
@@ -4922,10 +6088,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>2</v>
@@ -4936,10 +6102,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>2</v>
@@ -4950,10 +6116,10 @@
         <v>3</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>2</v>
@@ -4964,10 +6130,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>2</v>
@@ -4978,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D134" s="1" t="n">
         <v>1</v>
@@ -4992,10 +6158,10 @@
         <v>3</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>1</v>
@@ -5006,10 +6172,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>1</v>
@@ -5020,10 +6186,10 @@
         <v>3</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D137" s="1" t="n">
         <v>1</v>
@@ -5034,10 +6200,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>2</v>
@@ -5048,10 +6214,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>1</v>
@@ -5062,7 +6228,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>141</v>
@@ -5076,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>141</v>
@@ -5090,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>143</v>
@@ -5104,10 +6270,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>2</v>
@@ -5118,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>2</v>
@@ -5132,10 +6298,10 @@
         <v>3</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D145" s="1" t="n">
         <v>2</v>
@@ -5146,10 +6312,10 @@
         <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>2</v>
@@ -5160,16 +6326,19 @@
         <v>3</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,10 +6346,10 @@
         <v>3</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>2</v>
@@ -5191,10 +6360,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>1</v>
@@ -5205,7 +6374,7 @@
         <v>4</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>146</v>
@@ -5219,13 +6388,16 @@
         <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D151" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,10 +6405,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D152" s="1" t="n">
         <v>1</v>
@@ -5247,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>143</v>
@@ -5261,10 +6433,10 @@
         <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>2</v>
@@ -5275,10 +6447,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>1</v>
@@ -5289,10 +6461,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>1</v>
@@ -5303,10 +6475,10 @@
         <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>1</v>
@@ -5317,10 +6489,10 @@
         <v>4</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>1</v>
@@ -5331,10 +6503,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>1</v>
@@ -5345,10 +6517,10 @@
         <v>4</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>1</v>
@@ -5359,10 +6531,10 @@
         <v>4</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>1</v>
@@ -5373,10 +6545,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>1</v>
@@ -5387,10 +6559,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>2</v>
@@ -5401,10 +6573,10 @@
         <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>1</v>
@@ -5415,7 +6587,7 @@
         <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>141</v>
@@ -5429,7 +6601,7 @@
         <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>140</v>
@@ -5443,10 +6615,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>1</v>
@@ -5457,10 +6629,10 @@
         <v>4</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>1</v>
@@ -5471,10 +6643,10 @@
         <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>2</v>
@@ -5485,10 +6657,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D170" s="1" t="n">
         <v>2</v>
@@ -5499,7 +6671,7 @@
         <v>4</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>138</v>
@@ -5513,10 +6685,10 @@
         <v>4</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>1</v>
@@ -5527,10 +6699,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>2</v>
@@ -5541,10 +6713,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>1</v>
@@ -5555,10 +6727,10 @@
         <v>4</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>2</v>
@@ -5569,10 +6741,10 @@
         <v>4</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>1</v>
@@ -5583,10 +6755,10 @@
         <v>4</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>1</v>
@@ -5597,10 +6769,10 @@
         <v>4</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>2</v>
@@ -5611,16 +6783,19 @@
         <v>4</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,10 +6803,10 @@
         <v>4</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>1</v>
@@ -5642,10 +6817,10 @@
         <v>4</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>2</v>
@@ -5656,10 +6831,10 @@
         <v>4</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>2</v>
@@ -5670,10 +6845,10 @@
         <v>4</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>1</v>
@@ -5684,10 +6859,10 @@
         <v>4</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>2</v>
@@ -5698,10 +6873,10 @@
         <v>4</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>1</v>
@@ -5712,10 +6887,10 @@
         <v>4</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>1</v>
@@ -5726,10 +6901,10 @@
         <v>4</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D187" s="1" t="n">
         <v>1</v>
@@ -5740,10 +6915,10 @@
         <v>4</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>2</v>
@@ -5754,10 +6929,10 @@
         <v>4</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>2</v>
@@ -5768,10 +6943,10 @@
         <v>4</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>1</v>
@@ -5782,10 +6957,10 @@
         <v>4</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D191" s="1" t="n">
         <v>2</v>
@@ -5796,10 +6971,10 @@
         <v>4</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>2</v>
@@ -5810,10 +6985,10 @@
         <v>4</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>1</v>
@@ -5824,10 +6999,10 @@
         <v>4</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>1</v>
@@ -5838,10 +7013,10 @@
         <v>4</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>2</v>
@@ -5852,10 +7027,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>1</v>
@@ -5866,10 +7041,10 @@
         <v>4</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>1</v>
@@ -5879,125 +7054,704 @@
       <c r="A198" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D199" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D200" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D201" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B205" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B206" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B207" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B208" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B209" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B210" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B211" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D211" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B212" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D212" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D213" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D214" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B215" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D215" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B216" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D216" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B217" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D217" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B218" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D218" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B219" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D219" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B220" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D220" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B221" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D221" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D222" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D223" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D224" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D226" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D227" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D230" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D231" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D233" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D234" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D235" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D236" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D237" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D238" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D239" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D241" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D242" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D246" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6017,13 +7771,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA11" activeCellId="0" sqref="AA11"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
@@ -6039,166 +7793,166 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="W1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X2" s="8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="X3" s="8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X4" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E5" s="9"/>
       <c r="O5" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="X5" s="8" t="n">
         <v>8</v>
@@ -6206,23 +7960,23 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F6" s="9"/>
       <c r="H6" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X6" s="8" t="n">
         <v>2</v>
@@ -6230,23 +7984,23 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G7" s="9"/>
       <c r="I7" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X7" s="8" t="n">
         <v>6</v>
@@ -6254,47 +8008,47 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H8" s="9"/>
       <c r="J8" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="X8" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X9" s="8" t="n">
         <v>6</v>
@@ -6302,23 +8056,23 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J10" s="9"/>
       <c r="M10" s="0" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X10" s="8" t="n">
         <v>4</v>
@@ -6326,120 +8080,120 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X11" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X12" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M13" s="9"/>
       <c r="T13" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X13" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N14" s="9"/>
       <c r="Q14" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="X14" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="9"/>
       <c r="S15" s="0" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X15" s="8" t="n">
         <v>6</v>
@@ -6447,167 +8201,167 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="P16" s="9"/>
       <c r="R16" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X16" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="0" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X17" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="X18" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S19" s="9"/>
       <c r="X19" s="8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="T20" s="9"/>
       <c r="V20" s="0" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="X20" s="8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U21" s="9"/>
       <c r="W21" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="X21" s="8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X22" s="8" t="n">
         <v>1</v>
@@ -6615,26 +8369,279 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="8" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6659,7 +8666,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
   </cols>
@@ -6696,27 +8703,27 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,27 +8758,27 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6805,19 +8812,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,13 +8834,13 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,13 +8850,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,13 +8866,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,31 +8880,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>208</v>
+      <c r="B6" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,13 +8914,13 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,13 +8930,13 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,15 +8944,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,14 +8961,14 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,15 +8976,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,13 +8994,13 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,13 +9010,13 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,15 +9024,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,14 +9041,14 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,15 +9056,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7067,13 +9074,13 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7083,13 +9090,13 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7097,15 +9104,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,15 +9120,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,14 +9137,14 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,13 +9154,13 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,15 +9168,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7178,14 +9185,14 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,15 +9200,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,13 +9218,13 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7227,10 +9234,10 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -7241,10 +9248,10 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -7255,10 +9262,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -7269,10 +9276,10 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -7282,11 +9289,11 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -7296,27 +9303,27 @@
       </c>
       <c r="B32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7353,621 +9360,621 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>218</v>
+      <c r="A3" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>220</v>
+      <c r="A4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>224</v>
+      <c r="A5" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>231</v>
+      <c r="A7" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>235</v>
+      <c r="A8" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>239</v>
+      <c r="A9" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>244</v>
+      <c r="A10" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>248</v>
+      <c r="A11" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>254</v>
+      <c r="A12" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>258</v>
+      <c r="A13" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>262</v>
+      <c r="A14" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>266</v>
+      <c r="A15" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>270</v>
+      <c r="A16" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>274</v>
+      <c r="A17" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>277</v>
+      <c r="A18" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>281</v>
+      <c r="A19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>285</v>
+      <c r="A20" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>289</v>
+      <c r="A21" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>293</v>
+      <c r="A22" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>297</v>
+      <c r="A23" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>301</v>
+      <c r="A24" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>305</v>
+      <c r="A25" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7996,7 +10003,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="3" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,16 +10011,16 @@
         <v>2</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8021,16 +10028,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,16 +10045,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,16 +10062,16 @@
         <v>2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,16 +10079,16 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8089,16 +10096,16 @@
         <v>1</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,16 +10113,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,16 +10130,16 @@
         <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8140,16 +10147,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,16 +10164,16 @@
         <v>2</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,16 +10181,16 @@
         <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
